--- a/data/league_data/france/18/france_std.xlsx
+++ b/data/league_data/france/18/france_std.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C26C6A28-0D31-C745-B4D7-59EE2F3FA5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF7AA16-F7D5-1F48-8257-1AB5D0B4A37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>Rennes</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Moussa Niakhate</t>
   </si>
   <si>
@@ -1616,12 +1613,15 @@
   </si>
   <si>
     <t>Gabriel Dos Santos</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2479,14 +2479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -2512,7 +2512,7 @@
     <col min="27" max="27" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -4172,9 +4172,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>531</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>48</v>
@@ -4255,9 +4255,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
@@ -4338,9 +4338,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>41</v>
@@ -4421,9 +4421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>36</v>
@@ -4504,9 +4504,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>29</v>
@@ -4587,12 +4587,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="2">
         <v>34</v>
@@ -4670,9 +4670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -4753,9 +4753,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>39</v>
@@ -4836,9 +4836,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
@@ -4919,9 +4919,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>52</v>
@@ -5002,9 +5002,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>25</v>
@@ -5085,9 +5085,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>48</v>
@@ -5168,9 +5168,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
@@ -5251,12 +5251,12 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C34" s="2">
         <v>35</v>
@@ -5334,12 +5334,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C35" s="2">
         <v>37</v>
@@ -5417,9 +5417,9 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>46</v>
@@ -5500,9 +5500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>31</v>
@@ -5583,9 +5583,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>31</v>
@@ -5666,12 +5666,12 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2">
         <v>35</v>
@@ -5749,12 +5749,12 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C40" s="2">
         <v>36</v>
@@ -5832,9 +5832,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>52</v>
@@ -5915,12 +5915,12 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C42" s="2">
         <v>34</v>
@@ -5998,12 +5998,12 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2">
         <v>35</v>
@@ -6081,12 +6081,12 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C44" s="2">
         <v>34</v>
@@ -6164,12 +6164,12 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="2">
         <v>33</v>
@@ -6247,12 +6247,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2">
         <v>34</v>
@@ -6330,9 +6330,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>29</v>
@@ -6413,12 +6413,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="2">
         <v>33</v>
@@ -6496,12 +6496,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2">
         <v>35</v>
@@ -6579,9 +6579,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>39</v>
@@ -6662,9 +6662,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>29</v>
@@ -6745,12 +6745,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2">
         <v>33</v>
@@ -6828,9 +6828,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>52</v>
@@ -6911,9 +6911,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>48</v>
@@ -6994,12 +6994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2">
         <v>34</v>
@@ -7077,9 +7077,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>39</v>
@@ -7160,9 +7160,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>36</v>
@@ -7243,9 +7243,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>25</v>
@@ -7326,12 +7326,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2">
         <v>32</v>
@@ -7409,9 +7409,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>46</v>
@@ -7492,9 +7492,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>41</v>
@@ -7575,9 +7575,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>34</v>
@@ -7658,9 +7658,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>27</v>
@@ -7741,9 +7741,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>31</v>
@@ -7824,9 +7824,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>39</v>
@@ -7907,9 +7907,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>25</v>
@@ -7990,9 +7990,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>46</v>
@@ -8073,9 +8073,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>29</v>
@@ -8156,9 +8156,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>27</v>
@@ -8239,9 +8239,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>41</v>
@@ -8322,9 +8322,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>29</v>
@@ -8405,12 +8405,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="2">
         <v>31</v>
@@ -8488,9 +8488,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>27</v>
@@ -8571,9 +8571,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>27</v>
@@ -8654,12 +8654,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" s="2">
         <v>31</v>
@@ -8737,9 +8737,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>31</v>
@@ -8820,9 +8820,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>25</v>
@@ -8903,9 +8903,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>52</v>
@@ -8986,12 +8986,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2">
         <v>31</v>
@@ -9069,9 +9069,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>21</v>
@@ -9152,12 +9152,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="2">
         <v>36</v>
@@ -9235,9 +9235,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>23</v>
@@ -9318,12 +9318,12 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2">
         <v>33</v>
@@ -9401,12 +9401,12 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2">
         <v>31</v>
@@ -9484,12 +9484,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2">
         <v>32</v>
@@ -9567,9 +9567,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>31</v>
@@ -9650,9 +9650,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>50</v>
@@ -9733,9 +9733,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>34</v>
@@ -9816,9 +9816,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>48</v>
@@ -9899,12 +9899,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2">
         <v>29</v>
@@ -9982,9 +9982,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>39</v>
@@ -10065,12 +10065,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2">
         <v>28</v>
@@ -10148,9 +10148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>41</v>
@@ -10231,12 +10231,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2">
         <v>33</v>
@@ -10314,9 +10314,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>34</v>
@@ -10397,9 +10397,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>48</v>
@@ -10480,12 +10480,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2">
         <v>31</v>
@@ -10563,9 +10563,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>27</v>
@@ -10646,9 +10646,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>48</v>
@@ -10729,9 +10729,9 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>29</v>
@@ -10812,12 +10812,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2">
         <v>28</v>
@@ -10895,9 +10895,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>46</v>
@@ -10978,9 +10978,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>50</v>
@@ -11061,12 +11061,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2">
         <v>28</v>
@@ -11144,9 +11144,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>25</v>
@@ -11227,12 +11227,12 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C106" s="2">
         <v>37</v>
@@ -11310,9 +11310,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>48</v>
@@ -11393,9 +11393,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>25</v>
@@ -11476,9 +11476,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>31</v>
@@ -11559,9 +11559,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>21</v>
@@ -11642,12 +11642,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2">
         <v>28</v>
@@ -11725,12 +11725,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C112" s="2">
         <v>28</v>
@@ -11808,9 +11808,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>31</v>
@@ -11891,9 +11891,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>23</v>
@@ -11974,12 +11974,12 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2">
         <v>29</v>
@@ -12057,9 +12057,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>46</v>
@@ -12140,9 +12140,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>39</v>
@@ -12223,12 +12223,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2">
         <v>33</v>
@@ -12306,9 +12306,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>48</v>
@@ -12389,12 +12389,12 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2">
         <v>31</v>
@@ -12472,9 +12472,9 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>31</v>
@@ -12555,9 +12555,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>52</v>
@@ -12638,9 +12638,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>23</v>
@@ -12721,9 +12721,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>52</v>
@@ -12804,9 +12804,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>31</v>
@@ -12887,9 +12887,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>46</v>
@@ -12970,9 +12970,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>27</v>
@@ -13053,9 +13053,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>46</v>
@@ -13136,9 +13136,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>48</v>
@@ -13219,12 +13219,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C130" s="2">
         <v>30</v>
@@ -13302,12 +13302,12 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C131" s="2">
         <v>28</v>
@@ -13385,9 +13385,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>50</v>
@@ -13468,12 +13468,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2">
         <v>26</v>
@@ -13551,12 +13551,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C134" s="2">
         <v>30</v>
@@ -13634,9 +13634,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>34</v>
@@ -13717,9 +13717,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>23</v>
@@ -13800,12 +13800,12 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C137" s="2">
         <v>32</v>
@@ -13883,12 +13883,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C138" s="2">
         <v>27</v>
@@ -13966,9 +13966,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>29</v>
@@ -14049,9 +14049,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>25</v>
@@ -14132,12 +14132,12 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C141" s="2">
         <v>30</v>
@@ -14215,12 +14215,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2">
         <v>27</v>
@@ -14298,12 +14298,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2">
         <v>35</v>
@@ -14381,12 +14381,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C144" s="2">
         <v>33</v>
@@ -14464,12 +14464,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C145" s="2">
         <v>33</v>
@@ -14547,9 +14547,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>50</v>
@@ -14630,9 +14630,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>39</v>
@@ -14713,9 +14713,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>27</v>
@@ -14796,9 +14796,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>39</v>
@@ -14879,9 +14879,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>48</v>
@@ -14962,12 +14962,12 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2">
         <v>24</v>
@@ -15045,12 +15045,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C152" s="2">
         <v>25</v>
@@ -15128,12 +15128,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C153" s="2">
         <v>30</v>
@@ -15211,12 +15211,12 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2">
         <v>25</v>
@@ -15294,12 +15294,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C155" s="2">
         <v>27</v>
@@ -15377,9 +15377,9 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>25</v>
@@ -15460,9 +15460,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="157" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>29</v>
@@ -15543,9 +15543,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>50</v>
@@ -15626,12 +15626,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C159" s="2">
         <v>23</v>
@@ -15709,12 +15709,12 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C160" s="2">
         <v>25</v>
@@ -15792,9 +15792,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>34</v>
@@ -15875,9 +15875,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>50</v>
@@ -15958,9 +15958,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>41</v>
@@ -16041,9 +16041,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>46</v>
@@ -16124,9 +16124,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>27</v>
@@ -16207,12 +16207,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C166" s="2">
         <v>31</v>
@@ -16290,9 +16290,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>46</v>
@@ -16373,9 +16373,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>36</v>
@@ -16456,9 +16456,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>34</v>
@@ -16539,9 +16539,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>23</v>
@@ -16622,12 +16622,12 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C171" s="2">
         <v>24</v>
@@ -16705,9 +16705,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>34</v>
@@ -16788,12 +16788,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C173" s="2">
         <v>32</v>
@@ -16871,9 +16871,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>21</v>
@@ -16954,9 +16954,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>36</v>
@@ -17037,9 +17037,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>21</v>
@@ -17120,12 +17120,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C177" s="2">
         <v>23</v>
@@ -17203,9 +17203,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>39</v>
@@ -17286,9 +17286,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>52</v>
@@ -17369,9 +17369,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>23</v>
@@ -17452,12 +17452,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C181" s="2">
         <v>21</v>
@@ -17535,9 +17535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>36</v>
@@ -17618,12 +17618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C183" s="2">
         <v>28</v>
@@ -17701,9 +17701,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>52</v>
@@ -17784,9 +17784,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>27</v>
@@ -17867,9 +17867,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>25</v>
@@ -17950,9 +17950,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>36</v>
@@ -18033,9 +18033,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>29</v>
@@ -18116,9 +18116,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>29</v>
@@ -18199,9 +18199,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>52</v>
@@ -18282,9 +18282,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>50</v>
@@ -18365,9 +18365,9 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>27</v>
@@ -18448,9 +18448,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>46</v>
@@ -18531,9 +18531,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>41</v>
@@ -18614,9 +18614,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>48</v>
@@ -18697,12 +18697,12 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C196" s="2">
         <v>20</v>
@@ -18780,9 +18780,9 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>21</v>
@@ -18863,12 +18863,12 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C198" s="2">
         <v>29</v>
@@ -18946,12 +18946,12 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C199" s="2">
         <v>33</v>
@@ -19029,9 +19029,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>50</v>
@@ -19112,12 +19112,12 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C201" s="2">
         <v>29</v>
@@ -19195,9 +19195,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>29</v>
@@ -19278,12 +19278,12 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C203" s="2">
         <v>26</v>
@@ -19361,12 +19361,12 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C204" s="2">
         <v>22</v>
@@ -19444,12 +19444,12 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C205" s="2">
         <v>20</v>
@@ -19527,9 +19527,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>21</v>
@@ -19610,12 +19610,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C207" s="2">
         <v>22</v>
@@ -19693,12 +19693,12 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C208" s="2">
         <v>20</v>
@@ -19776,12 +19776,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C209" s="2">
         <v>23</v>
@@ -19859,12 +19859,12 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C210" s="2">
         <v>30</v>
@@ -19942,12 +19942,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C211" s="2">
         <v>20</v>
@@ -20025,9 +20025,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>23</v>
@@ -20108,9 +20108,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>36</v>
@@ -20191,9 +20191,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>23</v>
@@ -20274,12 +20274,12 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C215" s="2">
         <v>19</v>
@@ -20357,12 +20357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C216" s="2">
         <v>26</v>
@@ -20440,12 +20440,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C217" s="2">
         <v>25</v>
@@ -20523,12 +20523,12 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C218" s="2">
         <v>26</v>
@@ -20606,12 +20606,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C219" s="2">
         <v>19</v>
@@ -20689,9 +20689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>34</v>
@@ -20772,9 +20772,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>21</v>
@@ -20855,9 +20855,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>46</v>
@@ -20938,9 +20938,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>29</v>
@@ -21021,9 +21021,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>21</v>
@@ -21104,12 +21104,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C225" s="2">
         <v>31</v>
@@ -21187,9 +21187,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="226" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>27</v>
@@ -21270,9 +21270,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="227" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>48</v>
@@ -21353,9 +21353,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="228" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>39</v>
@@ -21436,9 +21436,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="229" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>23</v>
@@ -21519,9 +21519,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="230" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>36</v>
@@ -21602,9 +21602,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="231" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>41</v>
@@ -21685,9 +21685,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="232" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>23</v>
@@ -21768,9 +21768,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>21</v>
@@ -21851,12 +21851,12 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="234" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C234" s="2">
         <v>24</v>
@@ -21934,9 +21934,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>23</v>
@@ -22017,9 +22017,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="236" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>41</v>
@@ -22100,9 +22100,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>46</v>
@@ -22183,9 +22183,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="238" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>52</v>
@@ -22266,9 +22266,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="239" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>39</v>
@@ -22349,9 +22349,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="240" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>25</v>
@@ -22432,9 +22432,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>41</v>
@@ -22515,12 +22515,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C242" s="2">
         <v>18</v>
@@ -22598,12 +22598,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="243" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C243" s="2">
         <v>29</v>
@@ -22681,12 +22681,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="244" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C244" s="2">
         <v>17</v>
@@ -22764,9 +22764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>23</v>
@@ -22847,9 +22847,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="246" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>21</v>
@@ -22930,9 +22930,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="247" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>31</v>
@@ -23013,9 +23013,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="248" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>21</v>
@@ -23096,9 +23096,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="249" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>31</v>
@@ -23179,9 +23179,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="250" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>23</v>
@@ -23262,9 +23262,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="251" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>36</v>
@@ -23345,9 +23345,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="252" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>50</v>
@@ -23428,9 +23428,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="253" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>39</v>
@@ -23511,9 +23511,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="254" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>52</v>
@@ -23594,12 +23594,12 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="255" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C255" s="2">
         <v>17</v>
@@ -23677,9 +23677,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>36</v>
@@ -23760,9 +23760,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="257" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>50</v>
@@ -23843,9 +23843,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="258" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>36</v>
@@ -23926,9 +23926,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="259" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>27</v>
@@ -24009,9 +24009,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="260" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>50</v>
@@ -24092,9 +24092,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="261" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>31</v>
@@ -24175,9 +24175,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>34</v>
@@ -24258,9 +24258,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>27</v>
@@ -24341,9 +24341,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="264" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>27</v>
@@ -24424,9 +24424,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="265" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>21</v>
@@ -24507,12 +24507,12 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="266" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C266" s="2">
         <v>18</v>
@@ -24590,12 +24590,12 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C267" s="2">
         <v>24</v>
@@ -24673,12 +24673,12 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="268" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C268" s="2">
         <v>26</v>
@@ -24756,12 +24756,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="269" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C269" s="2">
         <v>25</v>
@@ -24839,9 +24839,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="270" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>50</v>
@@ -24922,9 +24922,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="271" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>36</v>
@@ -25005,12 +25005,12 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="272" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C272" s="2">
         <v>21</v>
@@ -25088,9 +25088,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>50</v>
@@ -25171,9 +25171,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>31</v>
@@ -25254,9 +25254,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>48</v>
@@ -25337,9 +25337,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>50</v>
@@ -25420,9 +25420,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>25</v>
@@ -25503,9 +25503,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>36</v>
@@ -25586,9 +25586,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>50</v>
@@ -25669,9 +25669,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>48</v>
@@ -25752,12 +25752,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C281" s="2">
         <v>26</v>
@@ -25835,9 +25835,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="282" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>39</v>
@@ -25918,12 +25918,12 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="283" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C283" s="2">
         <v>16</v>
@@ -26001,9 +26001,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>52</v>
@@ -26084,9 +26084,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>21</v>
@@ -26167,9 +26167,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="286" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>52</v>
@@ -26250,9 +26250,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="287" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>46</v>
@@ -26333,9 +26333,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="288" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>27</v>
@@ -26416,9 +26416,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>46</v>
@@ -26499,12 +26499,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="290" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C290" s="2">
         <v>14</v>
@@ -26582,12 +26582,12 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C291" s="2">
         <v>15</v>
@@ -26665,12 +26665,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="292" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C292" s="2">
         <v>13</v>
@@ -26748,9 +26748,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>50</v>
@@ -26831,9 +26831,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="294" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>52</v>
@@ -26914,12 +26914,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C295" s="2">
         <v>19</v>
@@ -26997,9 +26997,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>31</v>
@@ -27080,9 +27080,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>21</v>
@@ -27163,9 +27163,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="298" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>34</v>
@@ -27246,9 +27246,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>41</v>
@@ -27329,12 +27329,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="300" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C300" s="2">
         <v>14</v>
@@ -27412,9 +27412,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>46</v>
@@ -27495,9 +27495,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="302" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>34</v>
@@ -27578,12 +27578,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C303" s="2">
         <v>14</v>
@@ -27661,9 +27661,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="304" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>34</v>
@@ -27744,9 +27744,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>50</v>
@@ -27827,9 +27827,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="306" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>36</v>
@@ -27910,9 +27910,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>21</v>
@@ -27993,9 +27993,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="308" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>29</v>
@@ -28076,9 +28076,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>21</v>
@@ -28159,12 +28159,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="310" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C310" s="2">
         <v>15</v>
@@ -28242,9 +28242,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>23</v>
@@ -28325,9 +28325,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="312" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>34</v>
@@ -28408,9 +28408,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="313" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>25</v>
@@ -28491,12 +28491,12 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C314" s="2">
         <v>12</v>
@@ -28574,9 +28574,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="315" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>39</v>
@@ -28657,9 +28657,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="316" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>52</v>
@@ -28740,9 +28740,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="317" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>25</v>
@@ -28823,9 +28823,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="318" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>21</v>
@@ -28906,9 +28906,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="319" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>34</v>
@@ -28989,9 +28989,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="320" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>52</v>
@@ -29072,12 +29072,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="321" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C321" s="2">
         <v>14</v>
@@ -29155,9 +29155,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="322" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>36</v>
@@ -29238,12 +29238,12 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C323" s="2">
         <v>16</v>
@@ -29321,9 +29321,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="324" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>46</v>
@@ -29404,9 +29404,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>25</v>
@@ -29487,9 +29487,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="326" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>50</v>
@@ -29570,12 +29570,12 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C327" s="2">
         <v>26</v>
@@ -29653,12 +29653,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="328" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C328" s="2">
         <v>25</v>
@@ -29736,9 +29736,9 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>36</v>
@@ -29819,12 +29819,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="330" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C330" s="2">
         <v>11</v>
@@ -29902,12 +29902,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C331" s="2">
         <v>13</v>
@@ -29985,12 +29985,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C332" s="2">
         <v>10</v>
@@ -30068,9 +30068,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>41</v>
@@ -30151,9 +30151,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="334" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>41</v>
@@ -30234,9 +30234,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="335" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>25</v>
@@ -30317,12 +30317,12 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="336" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C336" s="2">
         <v>19</v>
@@ -30400,9 +30400,9 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>27</v>
@@ -30483,12 +30483,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="338" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C338" s="2">
         <v>22</v>
@@ -30566,12 +30566,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C339" s="2">
         <v>26</v>
@@ -30649,9 +30649,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="340" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>27</v>
@@ -30732,9 +30732,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>36</v>
@@ -30815,9 +30815,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="342" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>39</v>
@@ -30898,9 +30898,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>46</v>
@@ -30981,9 +30981,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="344" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>41</v>
@@ -31064,9 +31064,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="345" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>34</v>
@@ -31147,9 +31147,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="346" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>34</v>
@@ -31230,12 +31230,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="347" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C347" s="2">
         <v>20</v>
@@ -31313,9 +31313,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="348" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>34</v>
@@ -31396,12 +31396,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C349" s="2">
         <v>23</v>
@@ -31479,12 +31479,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C350" s="2">
         <v>15</v>
@@ -31562,9 +31562,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="351" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>25</v>
@@ -31645,9 +31645,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="352" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>36</v>
@@ -31728,9 +31728,9 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>23</v>
@@ -31811,9 +31811,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="354" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>52</v>
@@ -31894,9 +31894,9 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>29</v>
@@ -31977,9 +31977,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="356" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>50</v>
@@ -32060,9 +32060,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="357" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>39</v>
@@ -32143,9 +32143,9 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="358" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>52</v>
@@ -32226,9 +32226,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="359" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>29</v>
@@ -32309,12 +32309,12 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="360" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C360" s="2">
         <v>10</v>
@@ -32392,9 +32392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>31</v>
@@ -32475,9 +32475,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="362" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>41</v>
@@ -32558,9 +32558,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="363" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>48</v>
@@ -32641,9 +32641,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="364" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>39</v>
@@ -32724,9 +32724,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="365" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>34</v>
@@ -32807,9 +32807,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>41</v>
@@ -32890,9 +32890,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="367" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>50</v>
@@ -32973,9 +32973,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="368" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>34</v>
@@ -33056,12 +33056,12 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C369" s="2">
         <v>17</v>
@@ -33139,9 +33139,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="370" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>52</v>
@@ -33222,9 +33222,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="371" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>34</v>
@@ -33305,12 +33305,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="372" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C372" s="2">
         <v>20</v>
@@ -33388,9 +33388,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="373" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>41</v>
@@ -33471,9 +33471,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="374" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>31</v>
@@ -33554,9 +33554,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="375" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>48</v>
@@ -33637,9 +33637,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="376" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>36</v>
@@ -33720,12 +33720,12 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="377" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C377" s="2">
         <v>20</v>
@@ -33803,12 +33803,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="378" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C378" s="2">
         <v>7</v>
@@ -33886,9 +33886,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="379" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>29</v>
@@ -33969,9 +33969,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="380" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>27</v>
@@ -34052,12 +34052,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="381" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C381" s="2">
         <v>15</v>
@@ -34135,9 +34135,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="382" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>29</v>
@@ -34218,12 +34218,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="383" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C383" s="2">
         <v>10</v>
@@ -34301,12 +34301,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="384" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C384" s="2">
         <v>7</v>
@@ -34384,9 +34384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>41</v>
@@ -34467,9 +34467,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="386" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>25</v>
@@ -34550,9 +34550,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="387" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>21</v>
@@ -34633,9 +34633,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>36</v>
@@ -34716,9 +34716,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="389" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>50</v>
@@ -34799,9 +34799,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="390" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>29</v>
@@ -34882,9 +34882,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="391" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>41</v>
@@ -34965,9 +34965,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="392" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>50</v>
@@ -35048,9 +35048,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="393" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>46</v>
@@ -35131,12 +35131,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="394" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C394" s="2">
         <v>8</v>
@@ -35214,12 +35214,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="395" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C395" s="2">
         <v>8</v>
@@ -35297,9 +35297,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="396" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>50</v>
@@ -35380,9 +35380,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="397" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>31</v>
@@ -35463,12 +35463,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="398" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C398" s="2">
         <v>8</v>
@@ -35546,12 +35546,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="399" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C399" s="2">
         <v>16</v>
@@ -35629,12 +35629,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="400" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C400" s="2">
         <v>6</v>
@@ -35712,9 +35712,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="401" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>29</v>
@@ -35795,12 +35795,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="402" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C402" s="2">
         <v>13</v>
@@ -35878,9 +35878,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="403" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>36</v>
@@ -35961,12 +35961,12 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C404" s="2">
         <v>10</v>
@@ -36044,12 +36044,12 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C405" s="2">
         <v>6</v>
@@ -36127,9 +36127,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="406" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>31</v>
@@ -36210,9 +36210,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="407" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>39</v>
@@ -36293,9 +36293,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="408" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>52</v>
@@ -36376,9 +36376,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="409" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>41</v>
@@ -36459,9 +36459,9 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="410" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>41</v>
@@ -36542,9 +36542,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="411" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>29</v>
@@ -36625,12 +36625,12 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="412" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C412" s="2">
         <v>5</v>
@@ -36708,9 +36708,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="413" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>23</v>
@@ -36791,9 +36791,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="414" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>52</v>
@@ -36874,9 +36874,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="415" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>36</v>
@@ -36957,9 +36957,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="416" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>48</v>
@@ -37040,9 +37040,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>46</v>
@@ -37123,9 +37123,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>50</v>
@@ -37206,12 +37206,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="419" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C419" s="2">
         <v>4</v>
@@ -37289,9 +37289,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>34</v>
@@ -37372,12 +37372,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="421" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C421" s="2">
         <v>4</v>
@@ -37455,12 +37455,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C422" s="2">
         <v>7</v>
@@ -37538,12 +37538,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="423" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C423" s="2">
         <v>16</v>
@@ -37621,9 +37621,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="424" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>31</v>
@@ -37704,9 +37704,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="425" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>27</v>
@@ -37787,9 +37787,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="426" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>48</v>
@@ -37870,9 +37870,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="427" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>50</v>
@@ -37953,9 +37953,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>34</v>
@@ -38036,9 +38036,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="429" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>31</v>
@@ -38119,9 +38119,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="430" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>41</v>
@@ -38202,9 +38202,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>46</v>
@@ -38285,9 +38285,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="432" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>50</v>
@@ -38368,9 +38368,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>39</v>
@@ -38451,9 +38451,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="434" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>46</v>
@@ -38534,9 +38534,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="435" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>23</v>
@@ -38617,9 +38617,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="436" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>39</v>
@@ -38700,9 +38700,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="437" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>25</v>
@@ -38783,12 +38783,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="438" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C438" s="2">
         <v>4</v>
@@ -38866,9 +38866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>52</v>
@@ -38949,9 +38949,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>34</v>
@@ -39032,9 +39032,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="441" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>52</v>
@@ -39115,12 +39115,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="442" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C442" s="2">
         <v>8</v>
@@ -39198,9 +39198,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="443" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>39</v>
@@ -39281,12 +39281,12 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="444" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C444" s="2">
         <v>5</v>
@@ -39364,9 +39364,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="445" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>39</v>
@@ -39447,12 +39447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C446" s="2">
         <v>5</v>
@@ -39530,9 +39530,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="447" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>27</v>
@@ -39613,9 +39613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>29</v>
@@ -39696,9 +39696,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="449" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>39</v>
@@ -39779,9 +39779,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>23</v>
@@ -39862,9 +39862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>52</v>
@@ -39945,9 +39945,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>29</v>
@@ -40028,9 +40028,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="453" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>31</v>
@@ -40111,9 +40111,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="454" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>48</v>
@@ -40194,9 +40194,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="455" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>50</v>
@@ -40277,9 +40277,9 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="456" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>46</v>
@@ -40360,9 +40360,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="457" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>25</v>
@@ -40443,9 +40443,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="458" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>23</v>
@@ -40526,9 +40526,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="459" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>27</v>
@@ -40609,9 +40609,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="460" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>39</v>
@@ -40692,9 +40692,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="461" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>23</v>
@@ -40775,9 +40775,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="462" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>34</v>
@@ -40858,12 +40858,12 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="463" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C463" s="2">
         <v>9</v>
@@ -40941,9 +40941,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="464" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>36</v>
@@ -41024,9 +41024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>27</v>
@@ -41107,9 +41107,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>25</v>
@@ -41190,12 +41190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C467" s="2">
         <v>8</v>
@@ -41273,9 +41273,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="468" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>46</v>
@@ -41356,12 +41356,12 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="469" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C469" s="2">
         <v>4</v>
@@ -41439,9 +41439,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="470" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>23</v>
@@ -41522,12 +41522,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C471" s="2">
         <v>3</v>
@@ -41605,9 +41605,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="472" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>34</v>
@@ -41688,9 +41688,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="473" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>41</v>
@@ -41771,9 +41771,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="474" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>36</v>
@@ -41854,9 +41854,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="475" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>34</v>
@@ -41937,9 +41937,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="476" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>34</v>
@@ -42020,12 +42020,12 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="477" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C477" s="2">
         <v>7</v>
@@ -42103,12 +42103,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="478" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C478" s="2">
         <v>3</v>
@@ -42186,9 +42186,9 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="479" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>48</v>
@@ -42269,9 +42269,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>52</v>
@@ -42352,9 +42352,9 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="481" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>29</v>
@@ -42435,9 +42435,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="482" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>36</v>
@@ -42518,9 +42518,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="483" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>50</v>
@@ -42601,12 +42601,12 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="484" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C484" s="2">
         <v>7</v>
@@ -42684,9 +42684,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="485" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>31</v>
@@ -42767,9 +42767,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="486" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>39</v>
@@ -42850,9 +42850,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="487" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>29</v>
@@ -42933,9 +42933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>36</v>
@@ -43016,9 +43016,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="489" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>31</v>
@@ -43099,12 +43099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C490" s="2">
         <v>1</v>
@@ -43182,9 +43182,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="491" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>34</v>
@@ -43265,12 +43265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C492" s="2">
         <v>1</v>
@@ -43348,9 +43348,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>31</v>
@@ -43431,9 +43431,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="494" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>31</v>
@@ -43514,9 +43514,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>52</v>
@@ -43597,9 +43597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>25</v>
@@ -43680,9 +43680,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>31</v>
@@ -43763,9 +43763,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>39</v>
@@ -43846,12 +43846,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="499" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C499" s="2">
         <v>3</v>
@@ -43929,12 +43929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C500" s="2">
         <v>1</v>

--- a/data/league_data/france/18/france_std.xlsx
+++ b/data/league_data/france/18/france_std.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF7AA16-F7D5-1F48-8257-1AB5D0B4A37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9844CCD3-4106-314E-A49E-0204933254E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,9 +718,6 @@
     <t>Romain Genevois</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Neymar</t>
   </si>
   <si>
@@ -1616,6 +1613,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2482,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>48</v>
@@ -18616,7 +18616,7 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>232</v>
+        <v>531</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>48</v>
@@ -18699,7 +18699,7 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>58</v>
@@ -18782,7 +18782,7 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>21</v>
@@ -18865,7 +18865,7 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>78</v>
@@ -18948,7 +18948,7 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>58</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>50</v>
@@ -19114,7 +19114,7 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>75</v>
@@ -19197,7 +19197,7 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>29</v>
@@ -19280,7 +19280,7 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>75</v>
@@ -19363,7 +19363,7 @@
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>58</v>
@@ -19446,7 +19446,7 @@
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>75</v>
@@ -19529,7 +19529,7 @@
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>21</v>
@@ -19612,7 +19612,7 @@
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>58</v>
@@ -19695,7 +19695,7 @@
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>81</v>
@@ -19778,7 +19778,7 @@
     </row>
     <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>81</v>
@@ -19861,7 +19861,7 @@
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>58</v>
@@ -19944,7 +19944,7 @@
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>58</v>
@@ -20027,7 +20027,7 @@
     </row>
     <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>23</v>
@@ -20110,7 +20110,7 @@
     </row>
     <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>36</v>
@@ -20193,7 +20193,7 @@
     </row>
     <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>23</v>
@@ -20276,7 +20276,7 @@
     </row>
     <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>75</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>67</v>
@@ -20442,7 +20442,7 @@
     </row>
     <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>75</v>
@@ -20525,7 +20525,7 @@
     </row>
     <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>75</v>
@@ -20608,7 +20608,7 @@
     </row>
     <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>69</v>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>34</v>
@@ -20774,7 +20774,7 @@
     </row>
     <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>21</v>
@@ -20857,7 +20857,7 @@
     </row>
     <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>46</v>
@@ -20940,7 +20940,7 @@
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>29</v>
@@ -21023,7 +21023,7 @@
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>21</v>
@@ -21106,7 +21106,7 @@
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>81</v>
@@ -21189,7 +21189,7 @@
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>27</v>
@@ -21272,7 +21272,7 @@
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>48</v>
@@ -21355,7 +21355,7 @@
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>39</v>
@@ -21438,7 +21438,7 @@
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>23</v>
@@ -21521,7 +21521,7 @@
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>36</v>
@@ -21604,7 +21604,7 @@
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>41</v>
@@ -21687,7 +21687,7 @@
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>23</v>
@@ -21770,7 +21770,7 @@
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>21</v>
@@ -21853,7 +21853,7 @@
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>58</v>
@@ -21936,7 +21936,7 @@
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>23</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>41</v>
@@ -22102,7 +22102,7 @@
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>46</v>
@@ -22185,7 +22185,7 @@
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>52</v>
@@ -22268,7 +22268,7 @@
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>39</v>
@@ -22351,7 +22351,7 @@
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>25</v>
@@ -22434,7 +22434,7 @@
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>41</v>
@@ -22517,7 +22517,7 @@
     </row>
     <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>69</v>
@@ -22600,7 +22600,7 @@
     </row>
     <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>69</v>
@@ -22683,7 +22683,7 @@
     </row>
     <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>81</v>
@@ -22766,7 +22766,7 @@
     </row>
     <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>23</v>
@@ -22849,7 +22849,7 @@
     </row>
     <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>21</v>
@@ -22932,7 +22932,7 @@
     </row>
     <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>31</v>
@@ -23015,7 +23015,7 @@
     </row>
     <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>21</v>
@@ -23098,7 +23098,7 @@
     </row>
     <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>31</v>
@@ -23181,7 +23181,7 @@
     </row>
     <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>23</v>
@@ -23264,7 +23264,7 @@
     </row>
     <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>36</v>
@@ -23347,7 +23347,7 @@
     </row>
     <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>50</v>
@@ -23430,7 +23430,7 @@
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>39</v>
@@ -23513,7 +23513,7 @@
     </row>
     <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>52</v>
@@ -23596,7 +23596,7 @@
     </row>
     <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>75</v>
@@ -23679,7 +23679,7 @@
     </row>
     <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>36</v>
@@ -23762,7 +23762,7 @@
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>50</v>
@@ -23845,7 +23845,7 @@
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>36</v>
@@ -23928,7 +23928,7 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>27</v>
@@ -24011,7 +24011,7 @@
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>50</v>
@@ -24094,7 +24094,7 @@
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>31</v>
@@ -24177,7 +24177,7 @@
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>34</v>
@@ -24260,7 +24260,7 @@
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>27</v>
@@ -24343,7 +24343,7 @@
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>27</v>
@@ -24426,7 +24426,7 @@
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>21</v>
@@ -24509,7 +24509,7 @@
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>75</v>
@@ -24592,7 +24592,7 @@
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>78</v>
@@ -24675,7 +24675,7 @@
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>81</v>
@@ -24758,7 +24758,7 @@
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>58</v>
@@ -24841,7 +24841,7 @@
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>50</v>
@@ -24924,7 +24924,7 @@
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>36</v>
@@ -25007,7 +25007,7 @@
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>67</v>
@@ -25090,7 +25090,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>50</v>
@@ -25173,7 +25173,7 @@
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>31</v>
@@ -25256,7 +25256,7 @@
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>48</v>
@@ -25339,7 +25339,7 @@
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>50</v>
@@ -25422,7 +25422,7 @@
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>25</v>
@@ -25505,7 +25505,7 @@
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>36</v>
@@ -25588,7 +25588,7 @@
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>50</v>
@@ -25671,7 +25671,7 @@
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>48</v>
@@ -25754,7 +25754,7 @@
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>81</v>
@@ -25837,7 +25837,7 @@
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>39</v>
@@ -25920,7 +25920,7 @@
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>75</v>
@@ -26003,7 +26003,7 @@
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>52</v>
@@ -26086,7 +26086,7 @@
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>21</v>
@@ -26169,7 +26169,7 @@
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>52</v>
@@ -26252,7 +26252,7 @@
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>46</v>
@@ -26335,7 +26335,7 @@
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>27</v>
@@ -26418,7 +26418,7 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>46</v>
@@ -26501,7 +26501,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>81</v>
@@ -26584,7 +26584,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>67</v>
@@ -26667,7 +26667,7 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>69</v>
@@ -26750,7 +26750,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>50</v>
@@ -26833,7 +26833,7 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>52</v>
@@ -26916,7 +26916,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>58</v>
@@ -26999,7 +26999,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>31</v>
@@ -27082,7 +27082,7 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>21</v>
@@ -27165,7 +27165,7 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>34</v>
@@ -27248,7 +27248,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>41</v>
@@ -27331,7 +27331,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>75</v>
@@ -27414,7 +27414,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>46</v>
@@ -27497,7 +27497,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>34</v>
@@ -27580,7 +27580,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>69</v>
@@ -27663,7 +27663,7 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>34</v>
@@ -27746,7 +27746,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>50</v>
@@ -27829,7 +27829,7 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>36</v>
@@ -27912,7 +27912,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>21</v>
@@ -27995,7 +27995,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>29</v>
@@ -28078,7 +28078,7 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>21</v>
@@ -28161,7 +28161,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>69</v>
@@ -28244,7 +28244,7 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>23</v>
@@ -28327,7 +28327,7 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>34</v>
@@ -28410,7 +28410,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>25</v>
@@ -28493,7 +28493,7 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>81</v>
@@ -28576,7 +28576,7 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>39</v>
@@ -28659,7 +28659,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>52</v>
@@ -28742,7 +28742,7 @@
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>25</v>
@@ -28825,7 +28825,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>21</v>
@@ -28908,7 +28908,7 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>34</v>
@@ -28991,7 +28991,7 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>52</v>
@@ -29074,7 +29074,7 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>67</v>
@@ -29157,7 +29157,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>36</v>
@@ -29240,7 +29240,7 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>67</v>
@@ -29323,7 +29323,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>46</v>
@@ -29406,7 +29406,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>25</v>
@@ -29489,7 +29489,7 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>50</v>
@@ -29572,7 +29572,7 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>75</v>
@@ -29655,7 +29655,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>75</v>
@@ -29738,7 +29738,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>36</v>
@@ -29821,7 +29821,7 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>81</v>
@@ -29904,7 +29904,7 @@
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>67</v>
@@ -29987,7 +29987,7 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>67</v>
@@ -30070,7 +30070,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>41</v>
@@ -30153,7 +30153,7 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>41</v>
@@ -30236,7 +30236,7 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>25</v>
@@ -30319,7 +30319,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>78</v>
@@ -30402,7 +30402,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>27</v>
@@ -30485,7 +30485,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>78</v>
@@ -30568,7 +30568,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>67</v>
@@ -30651,7 +30651,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>27</v>
@@ -30734,7 +30734,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>36</v>
@@ -30817,7 +30817,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>39</v>
@@ -30900,7 +30900,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>46</v>
@@ -30983,7 +30983,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>41</v>
@@ -31066,7 +31066,7 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>34</v>
@@ -31149,7 +31149,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>34</v>
@@ -31232,7 +31232,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>69</v>
@@ -31315,7 +31315,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>34</v>
@@ -31398,7 +31398,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>75</v>
@@ -31481,7 +31481,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>67</v>
@@ -31564,7 +31564,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>25</v>
@@ -31647,7 +31647,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>36</v>
@@ -31730,7 +31730,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>23</v>
@@ -31813,7 +31813,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>52</v>
@@ -31896,7 +31896,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>29</v>
@@ -31979,7 +31979,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>50</v>
@@ -32062,7 +32062,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>39</v>
@@ -32145,7 +32145,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>52</v>
@@ -32228,7 +32228,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>29</v>
@@ -32311,7 +32311,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>78</v>
@@ -32394,7 +32394,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>31</v>
@@ -32477,7 +32477,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>41</v>
@@ -32560,7 +32560,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>48</v>
@@ -32643,7 +32643,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>39</v>
@@ -32726,7 +32726,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>34</v>
@@ -32809,7 +32809,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>41</v>
@@ -32892,7 +32892,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>50</v>
@@ -32975,7 +32975,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>34</v>
@@ -33058,7 +33058,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>75</v>
@@ -33141,7 +33141,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>52</v>
@@ -33224,7 +33224,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>34</v>
@@ -33307,7 +33307,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>69</v>
@@ -33390,7 +33390,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>41</v>
@@ -33473,7 +33473,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>31</v>
@@ -33556,7 +33556,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>48</v>
@@ -33639,7 +33639,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>36</v>
@@ -33722,7 +33722,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>58</v>
@@ -33805,7 +33805,7 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>67</v>
@@ -33888,7 +33888,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>29</v>
@@ -33971,7 +33971,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>27</v>
@@ -34054,7 +34054,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>81</v>
@@ -34137,7 +34137,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>29</v>
@@ -34220,7 +34220,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>58</v>
@@ -34303,7 +34303,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>69</v>
@@ -34386,7 +34386,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>41</v>
@@ -34469,7 +34469,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>25</v>
@@ -34552,7 +34552,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>21</v>
@@ -34635,7 +34635,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>36</v>
@@ -34718,7 +34718,7 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>50</v>
@@ -34801,7 +34801,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>29</v>
@@ -34884,7 +34884,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>41</v>
@@ -34967,7 +34967,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>50</v>
@@ -35050,7 +35050,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>46</v>
@@ -35133,7 +35133,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>78</v>
@@ -35216,7 +35216,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>67</v>
@@ -35299,7 +35299,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>50</v>
@@ -35382,7 +35382,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>31</v>
@@ -35465,7 +35465,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>81</v>
@@ -35548,7 +35548,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>69</v>
@@ -35631,7 +35631,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>78</v>
@@ -35714,7 +35714,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>29</v>
@@ -35797,7 +35797,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>69</v>
@@ -35880,7 +35880,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>36</v>
@@ -35963,7 +35963,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>69</v>
@@ -36046,7 +36046,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>69</v>
@@ -36129,7 +36129,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>31</v>
@@ -36212,7 +36212,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>39</v>
@@ -36295,7 +36295,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>52</v>
@@ -36378,7 +36378,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>41</v>
@@ -36461,7 +36461,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>41</v>
@@ -36544,7 +36544,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>29</v>
@@ -36627,7 +36627,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>67</v>
@@ -36710,7 +36710,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>23</v>
@@ -36793,7 +36793,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>52</v>
@@ -36876,7 +36876,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>36</v>
@@ -36959,7 +36959,7 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>48</v>
@@ -37042,7 +37042,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>46</v>
@@ -37125,7 +37125,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>50</v>
@@ -37208,7 +37208,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>58</v>
@@ -37291,7 +37291,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>34</v>
@@ -37374,7 +37374,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>78</v>
@@ -37457,7 +37457,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>78</v>
@@ -37540,7 +37540,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>81</v>
@@ -37623,7 +37623,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>31</v>
@@ -37706,7 +37706,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>27</v>
@@ -37789,7 +37789,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>48</v>
@@ -37872,7 +37872,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>50</v>
@@ -37955,7 +37955,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>34</v>
@@ -38038,7 +38038,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>31</v>
@@ -38121,7 +38121,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>41</v>
@@ -38204,7 +38204,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>46</v>
@@ -38287,7 +38287,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>50</v>
@@ -38370,7 +38370,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>39</v>
@@ -38536,7 +38536,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>23</v>
@@ -38619,7 +38619,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>39</v>
@@ -38702,7 +38702,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>25</v>
@@ -38785,7 +38785,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>75</v>
@@ -38868,7 +38868,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>52</v>
@@ -38951,7 +38951,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>34</v>
@@ -39034,7 +39034,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>52</v>
@@ -39117,7 +39117,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>67</v>
@@ -39200,7 +39200,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>39</v>
@@ -39283,7 +39283,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>75</v>
@@ -39366,7 +39366,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>39</v>
@@ -39449,7 +39449,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>67</v>
@@ -39532,7 +39532,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>27</v>
@@ -39698,7 +39698,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>39</v>
@@ -39781,7 +39781,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>23</v>
@@ -39864,7 +39864,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>52</v>
@@ -39947,7 +39947,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>29</v>
@@ -40030,7 +40030,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>31</v>
@@ -40113,7 +40113,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>48</v>
@@ -40196,7 +40196,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>50</v>
@@ -40279,7 +40279,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>46</v>
@@ -40362,7 +40362,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>25</v>
@@ -40445,7 +40445,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>23</v>
@@ -40528,7 +40528,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>27</v>
@@ -40611,7 +40611,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>39</v>
@@ -40694,7 +40694,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>23</v>
@@ -40777,7 +40777,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>34</v>
@@ -40860,7 +40860,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>69</v>
@@ -40943,7 +40943,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>36</v>
@@ -41026,7 +41026,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>27</v>
@@ -41109,7 +41109,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>25</v>
@@ -41192,7 +41192,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>69</v>
@@ -41275,7 +41275,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>46</v>
@@ -41358,7 +41358,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>67</v>
@@ -41441,7 +41441,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>23</v>
@@ -41524,7 +41524,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>69</v>
@@ -41607,7 +41607,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>34</v>
@@ -41690,7 +41690,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>41</v>
@@ -41773,7 +41773,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>36</v>
@@ -41856,7 +41856,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>34</v>
@@ -41939,7 +41939,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>34</v>
@@ -42022,7 +42022,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>69</v>
@@ -42105,7 +42105,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>58</v>
@@ -42188,7 +42188,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>48</v>
@@ -42271,7 +42271,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>52</v>
@@ -42354,7 +42354,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>29</v>
@@ -42437,7 +42437,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>36</v>
@@ -42520,7 +42520,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>50</v>
@@ -42603,7 +42603,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>67</v>
@@ -42686,7 +42686,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>31</v>
@@ -42769,7 +42769,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>39</v>
@@ -42852,7 +42852,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>29</v>
@@ -42935,7 +42935,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>36</v>
@@ -43018,7 +43018,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>31</v>
@@ -43101,7 +43101,7 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>67</v>
@@ -43184,7 +43184,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>34</v>
@@ -43267,7 +43267,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>78</v>
@@ -43350,7 +43350,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>31</v>
@@ -43433,7 +43433,7 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>31</v>
@@ -43516,7 +43516,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>52</v>
@@ -43599,7 +43599,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>25</v>
@@ -43682,7 +43682,7 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>31</v>
@@ -43765,7 +43765,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>39</v>
@@ -43848,7 +43848,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>78</v>
@@ -43931,7 +43931,7 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>81</v>
